--- a/data/scheduling_DNN/predict/0.1/result20.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result20.xlsx
@@ -570,10 +570,10 @@
         <v>1.354251861572266</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.5090546607971191</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6497489213943481</v>
+        <v>0.7143583297729492</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.955564022064209</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.4655902981758118</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1496783792972565</v>
+        <v>0.2400742471218109</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9038150310516357</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.5812180638313293</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02247589454054832</v>
+        <v>0.1040688008069992</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9646880626678467</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.9520412683486938</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02208383195102215</v>
+        <v>0.0001599414099473506</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8624889850616455</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.5809167623519897</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1414026618003845</v>
+        <v>0.07928291708230972</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8612699508666992</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.8779739737510681</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09484250098466873</v>
+        <v>0.0002790243888739496</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8685240745544434</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.9023960828781128</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1457334160804749</v>
+        <v>0.001147312927059829</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9395210742950439</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.8760222196578979</v>
       </c>
       <c r="W9" t="n">
-        <v>0.09847678244113922</v>
+        <v>0.00403210474178195</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8790268898010254</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4799639582633972</v>
       </c>
       <c r="W10" t="n">
-        <v>0.003911064472049475</v>
+        <v>0.1592512279748917</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8602771759033203</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.5123408436775208</v>
       </c>
       <c r="W11" t="n">
-        <v>0.05930310487747192</v>
+        <v>0.1210596933960915</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8565349578857422</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5258243680000305</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1246080622076988</v>
+        <v>0.1093694940209389</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9275128841400146</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.5301424264907837</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01226819399744272</v>
+        <v>0.1579032838344574</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8640398979187012</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.4875786304473877</v>
       </c>
       <c r="W14" t="n">
-        <v>0.16441410779953</v>
+        <v>0.1417230814695358</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9009048938751221</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.9220706820487976</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1959965378046036</v>
+        <v>0.0004479905765037984</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8620569705963135</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.4736782908439636</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0662565603852272</v>
+        <v>0.1508380025625229</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9405431747436523</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.8960136771202087</v>
       </c>
       <c r="W17" t="n">
-        <v>0.09777012467384338</v>
+        <v>0.001982876099646091</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8664679527282715</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.5815600156784058</v>
       </c>
       <c r="W18" t="n">
-        <v>0.04227043688297272</v>
+        <v>0.08117253333330154</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.877453088760376</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.4802675247192383</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1079014614224434</v>
+        <v>0.1577563732862473</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9046781063079834</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.4968499541282654</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1602880209684372</v>
+        <v>0.16632379591465</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9096720218658447</v>
       </c>
       <c r="V21" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4801540970802307</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1283481121063232</v>
+        <v>0.1844856441020966</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5249600410461426</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.8802108764648438</v>
       </c>
       <c r="W22" t="n">
-        <v>0.008856020867824554</v>
+        <v>0.1262031495571136</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5203139781951904</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4805042147636414</v>
       </c>
       <c r="W23" t="n">
-        <v>0.003157002851366997</v>
+        <v>0.001584817306138575</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5197029113769531</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.9184468388557434</v>
       </c>
       <c r="W24" t="n">
-        <v>0.003048015059903264</v>
+        <v>0.1589967161417007</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5299079418182373</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.9170699715614319</v>
       </c>
       <c r="W25" t="n">
-        <v>0.001776373013854027</v>
+        <v>0.1498944312334061</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5804708003997803</v>
       </c>
       <c r="V26" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.8990210890769958</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05566148459911346</v>
+        <v>0.1014742851257324</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5123651027679443</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.8972101807594299</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0001881510688690469</v>
+        <v>0.1481057405471802</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5148019790649414</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.4815957546234131</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0123437037691474</v>
+        <v>0.001102653332054615</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5309159755706787</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.9200515747070312</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02207912877202034</v>
+        <v>0.1514265090227127</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5254321098327637</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.9920905828475952</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0007386560901068151</v>
+        <v>0.217770129442215</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5630111694335938</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.4770873188972473</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01588595658540726</v>
+        <v>0.007382907904684544</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5267131328582764</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.530052661895752</v>
       </c>
       <c r="W32" t="n">
-        <v>0.009767483919858932</v>
+        <v>1.115245413529919e-05</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5152859687805176</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.9483681321144104</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01649200171232224</v>
+        <v>0.1875601559877396</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5179731845855713</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.4968535304069519</v>
       </c>
       <c r="W34" t="n">
-        <v>0.004115903750061989</v>
+        <v>0.0004460398049559444</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5152571201324463</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.5302872657775879</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01183441653847694</v>
+        <v>0.0002259052853332832</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5079898834228516</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.9164166450500488</v>
       </c>
       <c r="W36" t="n">
-        <v>0.002416131785139441</v>
+        <v>0.1668124198913574</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.514394998550415</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.5367330312728882</v>
       </c>
       <c r="W37" t="n">
-        <v>0.003615290857851505</v>
+        <v>0.0004989877343177795</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5184738636016846</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.9284620881080627</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0002185624907724559</v>
+        <v>0.1680903434753418</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5173470973968506</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.8992215991020203</v>
       </c>
       <c r="W39" t="n">
-        <v>0.00661427341401577</v>
+        <v>0.1458281278610229</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5155758857727051</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.478284478187561</v>
       </c>
       <c r="W40" t="n">
-        <v>0.001523791113868356</v>
+        <v>0.001390649122186005</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5083720684051514</v>
       </c>
       <c r="V41" t="n">
-        <v>0.436027318239212</v>
+        <v>0.5397900342941284</v>
       </c>
       <c r="W41" t="n">
-        <v>0.005233762785792351</v>
+        <v>0.0009870885405689478</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4416718482971191</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.5324214696884155</v>
       </c>
       <c r="W42" t="n">
-        <v>0.04703076556324959</v>
+        <v>0.008235493674874306</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4316799640655518</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.4816464185714722</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01475915405899286</v>
+        <v>0.002496646484360099</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.38214111328125</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.5366793870925903</v>
       </c>
       <c r="W44" t="n">
-        <v>0.02971329167485237</v>
+        <v>0.02388207800686359</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3869838714599609</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.9235005378723145</v>
       </c>
       <c r="W45" t="n">
-        <v>0.002364056650549173</v>
+        <v>0.2878501415252686</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3888320922851562</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.5240277051925659</v>
       </c>
       <c r="W46" t="n">
-        <v>0.007074861787259579</v>
+        <v>0.0182778537273407</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3875329494476318</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.5800272226333618</v>
       </c>
       <c r="W47" t="n">
-        <v>0.027909766882658</v>
+        <v>0.03705404698848724</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3911340236663818</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.937147319316864</v>
       </c>
       <c r="W48" t="n">
-        <v>0.02579012140631676</v>
+        <v>0.2981305122375488</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3867719173431396</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.9060249924659729</v>
       </c>
       <c r="W49" t="n">
-        <v>0.02733595855534077</v>
+        <v>0.2696237564086914</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3876190185546875</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.5154814720153809</v>
       </c>
       <c r="W50" t="n">
-        <v>0.03555973246693611</v>
+        <v>0.01634880714118481</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3867411613464355</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.4753822088241577</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0132281007245183</v>
+        <v>0.00785723514854908</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4399929046630859</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.9904178977012634</v>
       </c>
       <c r="W52" t="n">
-        <v>0.03535236790776253</v>
+        <v>0.3029676675796509</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3943779468536377</v>
       </c>
       <c r="V53" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.4992839694023132</v>
       </c>
       <c r="W53" t="n">
-        <v>0.1172815710306168</v>
+        <v>0.0110052740201354</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3826780319213867</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.5813242793083191</v>
       </c>
       <c r="W54" t="n">
-        <v>0.05689379200339317</v>
+        <v>0.03946033120155334</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4045310020446777</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5578286647796631</v>
       </c>
       <c r="W55" t="n">
-        <v>0.003757355036213994</v>
+        <v>0.02350017428398132</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3881227970123291</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5316202044487</v>
       </c>
       <c r="W56" t="n">
-        <v>0.001039275666698813</v>
+        <v>0.02059150673449039</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3897840976715088</v>
       </c>
       <c r="V57" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.4879076480865479</v>
       </c>
       <c r="W57" t="n">
-        <v>0.187826082110405</v>
+        <v>0.009628230705857277</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3869659900665283</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.5125800371170044</v>
       </c>
       <c r="W58" t="n">
-        <v>0.007958712056279182</v>
+        <v>0.01577888801693916</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3882980346679688</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.5220144987106323</v>
       </c>
       <c r="W59" t="n">
-        <v>0.004261558875441551</v>
+        <v>0.01788009330630302</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3886082172393799</v>
       </c>
       <c r="V60" t="n">
-        <v>0.551541268825531</v>
+        <v>0.4818165898323059</v>
       </c>
       <c r="W60" t="n">
-        <v>0.02654717862606049</v>
+        <v>0.008687800727784634</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4338691234588623</v>
       </c>
       <c r="V61" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.5814743638038635</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1463974118232727</v>
+        <v>0.02178730629384518</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8925290107727051</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.5392871499061584</v>
       </c>
       <c r="W62" t="n">
-        <v>0.0827995166182518</v>
+        <v>0.1247798129916191</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8653850555419922</v>
       </c>
       <c r="V63" t="n">
-        <v>0.816550612449646</v>
+        <v>0.9305649995803833</v>
       </c>
       <c r="W63" t="n">
-        <v>0.002384802792221308</v>
+        <v>0.004248424898833036</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8578071594238281</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.5122840404510498</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1500811129808426</v>
+        <v>0.119386225938797</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9193859100341797</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.9018204808235168</v>
       </c>
       <c r="W65" t="n">
-        <v>0.06893237680196762</v>
+        <v>0.0003085443167947233</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8577580451965332</v>
       </c>
       <c r="V66" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.5325347781181335</v>
       </c>
       <c r="W66" t="n">
-        <v>0.01238277927041054</v>
+        <v>0.1057701706886292</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8747169971466064</v>
       </c>
       <c r="V67" t="n">
-        <v>0.471180647611618</v>
+        <v>0.5224425792694092</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1628415882587433</v>
+        <v>0.1240972653031349</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9150738716125488</v>
       </c>
       <c r="V68" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.9460495710372925</v>
       </c>
       <c r="W68" t="n">
-        <v>0.009272566065192223</v>
+        <v>0.0009594939765520394</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.919395923614502</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.4759312272071838</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1359370797872543</v>
+        <v>0.1966609358787537</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8575479984283447</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.9098610281944275</v>
       </c>
       <c r="W70" t="n">
-        <v>0.03397596254944801</v>
+        <v>0.002736652968451381</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8619720935821533</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.4844949245452881</v>
       </c>
       <c r="W71" t="n">
-        <v>0.181377038359642</v>
+        <v>0.1424890160560608</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8653709888458252</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.9219294786453247</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1557459533214569</v>
+        <v>0.003198862774297595</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9216928482055664</v>
       </c>
       <c r="V73" t="n">
-        <v>0.476378470659256</v>
+        <v>0.8989332318305969</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1983048915863037</v>
+        <v>0.0005180001608096063</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8666291236877441</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.8846244215965271</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1018992438912392</v>
+        <v>0.0003238307544961572</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8657879829406738</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.4784507155418396</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1686951667070389</v>
+        <v>0.1500301659107208</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8658850193023682</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.9841881394386292</v>
       </c>
       <c r="W76" t="n">
-        <v>0.05788124352693558</v>
+        <v>0.01399562787264585</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9235298633575439</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.5127725005149841</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2110152542591095</v>
+        <v>0.168721616268158</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8606081008911133</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.5955018401145935</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1269651502370834</v>
+        <v>0.07028132677078247</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8655250072479248</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.576386570930481</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1475642621517181</v>
+        <v>0.08360103517770767</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8514149188995361</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.5122268795967102</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0364203155040741</v>
+        <v>0.1150485277175903</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9106998443603516</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.5965405106544495</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2828702926635742</v>
+        <v>0.09869609028100967</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5545799732208252</v>
       </c>
       <c r="V82" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5225026607513428</v>
       </c>
       <c r="W82" t="n">
-        <v>0.004858804866671562</v>
+        <v>0.001028953935019672</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5165619850158691</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.5298314690589905</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01968389935791492</v>
+        <v>0.0001760792074492201</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5125730037689209</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.5048927068710327</v>
       </c>
       <c r="W84" t="n">
-        <v>0.00153860857244581</v>
+        <v>5.898695962969214e-05</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5154180526733398</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.9518828988075256</v>
       </c>
       <c r="W85" t="n">
-        <v>0.00193876784760505</v>
+        <v>0.1905015558004379</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5519139766693115</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.5809241533279419</v>
       </c>
       <c r="W86" t="n">
-        <v>0.004771864507347345</v>
+        <v>0.0008415903430432081</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5145139694213867</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.5391448140144348</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0110381506383419</v>
+        <v>0.0006066784844733775</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5166299343109131</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.5366401672363281</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01614849828183651</v>
+        <v>0.0004004094225820154</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5164880752563477</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.9310503602027893</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0002116079995175824</v>
+        <v>0.1718618869781494</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5461790561676025</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.5228202342987061</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01898939162492752</v>
+        <v>0.0005456345388665795</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.557750940322876</v>
       </c>
       <c r="V91" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.887770414352417</v>
       </c>
       <c r="W91" t="n">
-        <v>0.009825256653130054</v>
+        <v>0.108912855386734</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5169041156768799</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.5299889445304871</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01157919131219387</v>
+        <v>0.0001712127414066344</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5182931423187256</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.9075648784637451</v>
       </c>
       <c r="W93" t="n">
-        <v>0.003577850759029388</v>
+        <v>0.1515324860811234</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5126919746398926</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.536501407623291</v>
       </c>
       <c r="W94" t="n">
-        <v>7.520356302848086e-05</v>
+        <v>0.0005668891244567931</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5174551010131836</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.9302529096603394</v>
       </c>
       <c r="W95" t="n">
-        <v>0.015957435593009</v>
+        <v>0.1704020351171494</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5192959308624268</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.4907500743865967</v>
       </c>
       <c r="W96" t="n">
-        <v>0.003811394795775414</v>
+        <v>0.0008148659253492951</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5808908939361572</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.9810985922813416</v>
       </c>
       <c r="W97" t="n">
-        <v>0.005920772440731525</v>
+        <v>0.1601662039756775</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5214481353759766</v>
       </c>
       <c r="V98" t="n">
-        <v>0.504918098449707</v>
+        <v>0.9250618815422058</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0002732421271502972</v>
+        <v>0.1629040539264679</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.512747049331665</v>
       </c>
       <c r="V99" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.500649094581604</v>
       </c>
       <c r="W99" t="n">
-        <v>0.04884951561689377</v>
+        <v>0.0001463605149183422</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5123469829559326</v>
       </c>
       <c r="V100" t="n">
-        <v>0.435836523771286</v>
+        <v>0.4769397974014282</v>
       </c>
       <c r="W100" t="n">
-        <v>0.005853850394487381</v>
+        <v>0.001253668800927699</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5169899463653564</v>
       </c>
       <c r="V101" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.5300136208534241</v>
       </c>
       <c r="W101" t="n">
-        <v>0.08712783455848694</v>
+        <v>0.0001696160907158628</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4159770011901855</v>
       </c>
       <c r="V102" t="n">
-        <v>0.505409836769104</v>
+        <v>0.4879233241081238</v>
       </c>
       <c r="W102" t="n">
-        <v>0.007998231798410416</v>
+        <v>0.005176273174583912</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4081320762634277</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.4847376346588135</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0007556307245977223</v>
+        <v>0.005868411622941494</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3999199867248535</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.48997563123703</v>
       </c>
       <c r="W104" t="n">
-        <v>0.06104114651679993</v>
+        <v>0.008110019378364086</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4027910232543945</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.923376739025116</v>
       </c>
       <c r="W105" t="n">
-        <v>0.004624338820576668</v>
+        <v>0.2710094749927521</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.394542932510376</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.4847491979598999</v>
       </c>
       <c r="W106" t="n">
-        <v>0.05039818957448006</v>
+        <v>0.008137170225381851</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3877739906311035</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.5300673246383667</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0129886269569397</v>
+        <v>0.02024739235639572</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3874669075012207</v>
       </c>
       <c r="V108" t="n">
-        <v>0.569115161895752</v>
+        <v>0.9351987838745117</v>
       </c>
       <c r="W108" t="n">
-        <v>0.03299608826637268</v>
+        <v>0.3000102043151855</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3998849391937256</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.8699347376823425</v>
       </c>
       <c r="W109" t="n">
-        <v>0.08135338872671127</v>
+        <v>0.2209468185901642</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3977890014648438</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.9492335915565491</v>
       </c>
       <c r="W110" t="n">
-        <v>0.02398782968521118</v>
+        <v>0.3040911257266998</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.5410671234130859</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.472575306892395</v>
       </c>
       <c r="W111" t="n">
-        <v>0.007482836022973061</v>
+        <v>0.004691129084676504</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4102871417999268</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.5061641335487366</v>
       </c>
       <c r="W112" t="n">
-        <v>0.05434202775359154</v>
+        <v>0.009192397817969322</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3891448974609375</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.5298922061920166</v>
       </c>
       <c r="W113" t="n">
-        <v>0.006660935468971729</v>
+        <v>0.01980980485677719</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.4135980606079102</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.5822628736495972</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0008192001841962337</v>
+        <v>0.02844781987369061</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.420119047164917</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.9052515625953674</v>
       </c>
       <c r="W115" t="n">
-        <v>0.002921685809269547</v>
+        <v>0.2353535592556</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3919508457183838</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.9350359439849854</v>
       </c>
       <c r="W116" t="n">
-        <v>0.004322122316807508</v>
+        <v>0.2949414253234863</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3871231079101562</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.9135130047798157</v>
       </c>
       <c r="W117" t="n">
-        <v>0.06688079982995987</v>
+        <v>0.2770863175392151</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.3947951793670654</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5315582752227783</v>
       </c>
       <c r="W118" t="n">
-        <v>0.02569850347936153</v>
+        <v>0.01870414428412914</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3893699645996094</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.5809204578399658</v>
       </c>
       <c r="W119" t="n">
-        <v>5.331726242729928e-07</v>
+        <v>0.03669159114360809</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3995180130004883</v>
       </c>
       <c r="V120" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4970805644989014</v>
       </c>
       <c r="W120" t="n">
-        <v>0.1740722209215164</v>
+        <v>0.009518451057374477</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4447309970855713</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.4784013628959656</v>
       </c>
       <c r="W121" t="n">
-        <v>7.603234553243965e-05</v>
+        <v>0.001133693498559296</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8855268955230713</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.5073508620262146</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1758737862110138</v>
+        <v>0.1430171132087708</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9227871894836426</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4996099472045898</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2201108485460281</v>
+        <v>0.1790789812803268</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8846330642700195</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.5726466178894043</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1842566579580307</v>
+        <v>0.09733553975820541</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9254310131072998</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.9094127416610718</v>
       </c>
       <c r="W125" t="n">
-        <v>0.0898725613951683</v>
+        <v>0.0002565850154496729</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8755600452423096</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.5053316950798035</v>
       </c>
       <c r="W126" t="n">
-        <v>0.04774923995137215</v>
+        <v>0.1370690315961838</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8696229457855225</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.8993833661079407</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1696490943431854</v>
+        <v>0.0008856826461851597</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8604490756988525</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.4974693059921265</v>
       </c>
       <c r="W128" t="n">
-        <v>0.08049555867910385</v>
+        <v>0.1317543089389801</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.908344030380249</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.9264040589332581</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2174459546804428</v>
+        <v>0.0003261646197643131</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8747379779815674</v>
       </c>
       <c r="V130" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.9361184239387512</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2469179779291153</v>
+        <v>0.003767559072002769</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8641781806945801</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5303063988685608</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1673198491334915</v>
+        <v>0.1114703640341759</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8708858489990234</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4770557284355164</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1561337262392044</v>
+        <v>0.1551021635532379</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>1.040012121200562</v>
       </c>
       <c r="V133" t="n">
-        <v>0.812067985534668</v>
+        <v>0.9041103720664978</v>
       </c>
       <c r="W133" t="n">
-        <v>0.05195852741599083</v>
+        <v>0.01846928521990776</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8626010417938232</v>
       </c>
       <c r="V134" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.5376562476158142</v>
       </c>
       <c r="W134" t="n">
-        <v>0.05677057057619095</v>
+        <v>0.1055891215801239</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8808248043060303</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4871422052383423</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1084463745355606</v>
+        <v>0.1549859941005707</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8533949851989746</v>
       </c>
       <c r="V136" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.9969895482063293</v>
       </c>
       <c r="W136" t="n">
-        <v>0.01481333933770657</v>
+        <v>0.02061939798295498</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9238240718841553</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.5091289877891541</v>
       </c>
       <c r="W137" t="n">
-        <v>0.08878899365663528</v>
+        <v>0.1719720065593719</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8670427799224854</v>
       </c>
       <c r="V138" t="n">
-        <v>0.475897878408432</v>
+        <v>0.8974869847297668</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1529943346977234</v>
+        <v>0.0009268496069125831</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.861328125</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.5808807611465454</v>
       </c>
       <c r="W139" t="n">
-        <v>0.09546060115098953</v>
+        <v>0.07865072041749954</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8629481792449951</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.8852575421333313</v>
       </c>
       <c r="W140" t="n">
-        <v>0.149759903550148</v>
+        <v>0.0004977076896466315</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.9176821708679199</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.50836181640625</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2316599041223526</v>
+        <v>0.1675431579351425</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5482630729675293</v>
       </c>
       <c r="V142" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4801998734474182</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0001763798791216686</v>
+        <v>0.00463259918615222</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5196769237518311</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.4781729578971863</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0008986684260889888</v>
+        <v>0.001722579239867628</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5205450057983398</v>
       </c>
       <c r="V144" t="n">
-        <v>0.551807165145874</v>
+        <v>0.5374540090560913</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0009773225756362081</v>
+        <v>0.0002859144005924463</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5188238620758057</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.9206968545913696</v>
       </c>
       <c r="W145" t="n">
-        <v>0.002445294754579663</v>
+        <v>0.1615018993616104</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.576012134552002</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.5125992894172668</v>
       </c>
       <c r="W146" t="n">
-        <v>0.002052274299785495</v>
+        <v>0.004021188709884882</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5310349464416504</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.4780513644218445</v>
       </c>
       <c r="W147" t="n">
-        <v>0.002029118128120899</v>
+        <v>0.002807260025292635</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5219700336456299</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.8987378478050232</v>
       </c>
       <c r="W148" t="n">
-        <v>0.002631896873936057</v>
+        <v>0.1419539898633957</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5235979557037354</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.539150595664978</v>
       </c>
       <c r="W149" t="n">
-        <v>0.007669592741876841</v>
+        <v>0.0002418846124783158</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5158951282501221</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.896679162979126</v>
       </c>
       <c r="W150" t="n">
-        <v>0.006422896403819323</v>
+        <v>0.1449964791536331</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5120859146118164</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.480720579624176</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01249962951987982</v>
+        <v>0.0009837842080742121</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.516077995300293</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.9024160504341125</v>
       </c>
       <c r="W152" t="n">
-        <v>0.001644214964471757</v>
+        <v>0.149257093667984</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5141050815582275</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.5081222653388977</v>
       </c>
       <c r="W153" t="n">
-        <v>0.002987138228490949</v>
+        <v>3.57940916728694e-05</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5135571956634521</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.4740431904792786</v>
       </c>
       <c r="W154" t="n">
-        <v>0.002226061886176467</v>
+        <v>0.00156135659199208</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5195629596710205</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.984384298324585</v>
       </c>
       <c r="W155" t="n">
-        <v>0.007046033628284931</v>
+        <v>0.2160588800907135</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5117571353912354</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.8685097694396973</v>
       </c>
       <c r="W156" t="n">
-        <v>0.003267649561166763</v>
+        <v>0.127272441983223</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5727570056915283</v>
       </c>
       <c r="V157" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.4841144680976868</v>
       </c>
       <c r="W157" t="n">
-        <v>0.03778325393795967</v>
+        <v>0.007857499644160271</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5174200534820557</v>
       </c>
       <c r="V158" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.9258902668952942</v>
       </c>
       <c r="W158" t="n">
-        <v>0.05279258266091347</v>
+        <v>0.1668479144573212</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5205020904541016</v>
       </c>
       <c r="V159" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.9351549744606018</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01089804898947477</v>
+        <v>0.1719370186328888</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5197839736938477</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.48660808801651</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01030617766082287</v>
+        <v>0.001100639346987009</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5194149017333984</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.5301989316940308</v>
       </c>
       <c r="W161" t="n">
-        <v>0.006954582408070564</v>
+        <v>0.0001162953049060889</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3930768966674805</v>
       </c>
       <c r="V162" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.8851750493049622</v>
       </c>
       <c r="W162" t="n">
-        <v>0.0002112552465405315</v>
+        <v>0.2421605885028839</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3901159763336182</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.4801019430160522</v>
       </c>
       <c r="W163" t="n">
-        <v>0.05268390104174614</v>
+        <v>0.008097474463284016</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3903021812438965</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.8713100552558899</v>
       </c>
       <c r="W164" t="n">
-        <v>0.004005691967904568</v>
+        <v>0.2313685715198517</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3930621147155762</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.5155720710754395</v>
       </c>
       <c r="W165" t="n">
-        <v>0.05415217205882072</v>
+        <v>0.01500868983566761</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3910620212554932</v>
       </c>
       <c r="V166" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5111194849014282</v>
       </c>
       <c r="W166" t="n">
-        <v>0.0517781488597393</v>
+        <v>0.01441379450261593</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3932259082794189</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.8989699482917786</v>
       </c>
       <c r="W167" t="n">
-        <v>0.006636357866227627</v>
+        <v>0.2557770311832428</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4023430347442627</v>
       </c>
       <c r="V168" t="n">
-        <v>0.624763011932373</v>
+        <v>0.5006725192070007</v>
       </c>
       <c r="W168" t="n">
-        <v>0.04947064444422722</v>
+        <v>0.009668687358498573</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4425280094146729</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.4782389402389526</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01154319848865271</v>
+        <v>0.001275270595215261</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3961889743804932</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.8951606154441833</v>
       </c>
       <c r="W170" t="n">
-        <v>0.04955223947763443</v>
+        <v>0.2489726990461349</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3892269134521484</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.4842320084571838</v>
       </c>
       <c r="W171" t="n">
-        <v>0.05584872886538506</v>
+        <v>0.009025967679917812</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3962669372558594</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.8776182532310486</v>
       </c>
       <c r="W172" t="n">
-        <v>0.01218649372458458</v>
+        <v>0.2316990941762924</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3929891586303711</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.5381108522415161</v>
       </c>
       <c r="W173" t="n">
-        <v>0.004168143030256033</v>
+        <v>0.02106030657887459</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3880558013916016</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.9588149785995483</v>
       </c>
       <c r="W174" t="n">
-        <v>0.08125963807106018</v>
+        <v>0.3257660269737244</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.449537992477417</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5802683234214783</v>
       </c>
       <c r="W175" t="n">
-        <v>0.0021778903901577</v>
+        <v>0.01709041930735111</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3929719924926758</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.9470666646957397</v>
       </c>
       <c r="W176" t="n">
-        <v>0.07141297310590744</v>
+        <v>0.307020902633667</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4005780220031738</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.8974453806877136</v>
       </c>
       <c r="W177" t="n">
-        <v>0.04990894347429276</v>
+        <v>0.2468771785497665</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3936870098114014</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.581204354763031</v>
       </c>
       <c r="W178" t="n">
-        <v>0.03028936870396137</v>
+        <v>0.03516275435686111</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3929297924041748</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.9237719178199768</v>
       </c>
       <c r="W179" t="n">
-        <v>0.00890817865729332</v>
+        <v>0.2817933559417725</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.387890100479126</v>
       </c>
       <c r="V180" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.5220925211906433</v>
       </c>
       <c r="W180" t="n">
-        <v>0.1851425915956497</v>
+        <v>0.01801029033958912</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4023661613464355</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.8703290820121765</v>
       </c>
       <c r="W181" t="n">
-        <v>0.04901042208075523</v>
+        <v>0.218989297747612</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8709530830383301</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.5220542550086975</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1639400571584702</v>
+        <v>0.1217303946614265</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9189059734344482</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.4800285696983337</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1208560839295387</v>
+        <v>0.1926133781671524</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8743200302124023</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.4736427664756775</v>
       </c>
       <c r="W184" t="n">
-        <v>0.192342534661293</v>
+        <v>0.1605422645807266</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8938460350036621</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.5392327308654785</v>
       </c>
       <c r="W185" t="n">
-        <v>0.06337625533342361</v>
+        <v>0.1257506012916565</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8681211471557617</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.8854519724845886</v>
       </c>
       <c r="W186" t="n">
-        <v>0.09400398284196854</v>
+        <v>0.0003003574965987355</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8859708309173584</v>
       </c>
       <c r="V187" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.5298318266868591</v>
       </c>
       <c r="W187" t="n">
-        <v>0.02174975536763668</v>
+        <v>0.1268349885940552</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8645780086517334</v>
       </c>
       <c r="V188" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.5811808705329895</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2329671382904053</v>
+        <v>0.08031393587589264</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9230661392211914</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.8981571197509766</v>
       </c>
       <c r="W189" t="n">
-        <v>0.216510608792305</v>
+        <v>0.0006204592646099627</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8635609149932861</v>
       </c>
       <c r="V190" t="n">
-        <v>0.436014860868454</v>
+        <v>0.4802090525627136</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1827956289052963</v>
+        <v>0.1469586491584778</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8786489963531494</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.4850627779960632</v>
       </c>
       <c r="W191" t="n">
-        <v>0.04908524081110954</v>
+        <v>0.1549101173877716</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8609321117401123</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.4771447777748108</v>
       </c>
       <c r="W192" t="n">
-        <v>0.09540153294801712</v>
+        <v>0.1472927182912827</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9282732009887695</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.9198695421218872</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2212135940790176</v>
+        <v>7.062148506520316e-05</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8638420104980469</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.9105719923973083</v>
       </c>
       <c r="W194" t="n">
-        <v>0.04293126985430717</v>
+        <v>0.002183691132813692</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8684389591217041</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.5301099419593811</v>
       </c>
       <c r="W195" t="n">
-        <v>0.09542130678892136</v>
+        <v>0.1144665256142616</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8597240447998047</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.4898812770843506</v>
       </c>
       <c r="W196" t="n">
-        <v>0.0410747341811657</v>
+        <v>0.1367836743593216</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9256141185760498</v>
       </c>
       <c r="V197" t="n">
-        <v>0.480756551027298</v>
+        <v>0.5395718812942505</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1978982537984848</v>
+        <v>0.1490286141633987</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8713750839233398</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.4983373880386353</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1315233558416367</v>
+        <v>0.1391571164131165</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8712639808654785</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.5822105407714844</v>
       </c>
       <c r="W199" t="n">
-        <v>0.06108769029378891</v>
+        <v>0.08355189114809036</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8604650497436523</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.5062993764877319</v>
       </c>
       <c r="W200" t="n">
-        <v>0.156888023018837</v>
+        <v>0.1254333257675171</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9409980773925781</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.4877831935882568</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2336482852697372</v>
+        <v>0.2054037302732468</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5198400020599365</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.8992467522621155</v>
       </c>
       <c r="W202" t="n">
-        <v>0.00954675767570734</v>
+        <v>0.1439494788646698</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5186119079589844</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.8989927172660828</v>
       </c>
       <c r="W203" t="n">
-        <v>0.001909406972117722</v>
+        <v>0.1446895599365234</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5283291339874268</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.8969175219535828</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0255143828690052</v>
+        <v>0.1358574032783508</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5149800777435303</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.5301499366760254</v>
       </c>
       <c r="W205" t="n">
-        <v>0.006233994849026203</v>
+        <v>0.0002301246131537482</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5194909572601318</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.4992281794548035</v>
       </c>
       <c r="W206" t="n">
-        <v>0.002869237447157502</v>
+        <v>0.0004105801635887474</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5268590450286865</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.4847185015678406</v>
       </c>
       <c r="W207" t="n">
-        <v>0.01732091978192329</v>
+        <v>0.001775825396180153</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5174260139465332</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5413833260536194</v>
       </c>
       <c r="W208" t="n">
-        <v>0.006580369547009468</v>
+        <v>0.0005739527987316251</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5134661197662354</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.4844958186149597</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01224866043776274</v>
+        <v>0.0008392783347517252</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5186221599578857</v>
       </c>
       <c r="V210" t="n">
-        <v>0.630542516708374</v>
+        <v>0.939984142780304</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01252616662532091</v>
+        <v>0.1775459200143814</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5209619998931885</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4991594552993774</v>
       </c>
       <c r="W211" t="n">
-        <v>0.004010103177279234</v>
+        <v>0.0004753509419970214</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.572490930557251</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.5051506161689758</v>
       </c>
       <c r="W212" t="n">
-        <v>0.004749590530991554</v>
+        <v>0.004534718114882708</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5224580764770508</v>
       </c>
       <c r="V213" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.879530668258667</v>
       </c>
       <c r="W213" t="n">
-        <v>0.09040554612874985</v>
+        <v>0.1275008320808411</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5198771953582764</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.4877303242683411</v>
       </c>
       <c r="W214" t="n">
-        <v>0.00387099920772016</v>
+        <v>0.001033421372994781</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5207560062408447</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.4975382685661316</v>
       </c>
       <c r="W215" t="n">
-        <v>0.001076236134395003</v>
+        <v>0.0005390633596107364</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5230591297149658</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.9250106811523438</v>
       </c>
       <c r="W216" t="n">
-        <v>0.002784033305943012</v>
+        <v>0.1615650504827499</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5197432041168213</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.4831082224845886</v>
       </c>
       <c r="W217" t="n">
-        <v>0.002888076705858111</v>
+        <v>0.001342121860943735</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5274670124053955</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.5065833330154419</v>
       </c>
       <c r="W218" t="n">
-        <v>0.00539297191426158</v>
+        <v>0.0004361280589364469</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5363619327545166</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.4800848364830017</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0002735141315497458</v>
+        <v>0.003167111659422517</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5223660469055176</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.5360115170478821</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01469703204929829</v>
+        <v>0.0001861988566815853</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5163857936859131</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.4802452325820923</v>
       </c>
       <c r="W221" t="n">
-        <v>0.006457479670643806</v>
+        <v>0.001306140213273466</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3868558406829834</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.5126426815986633</v>
       </c>
       <c r="W222" t="n">
-        <v>0.08875809609889984</v>
+        <v>0.01582232862710953</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4408400058746338</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.478489875793457</v>
       </c>
       <c r="W223" t="n">
-        <v>0.03733392804861069</v>
+        <v>0.001417512656189501</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3950338363647461</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.5225672721862793</v>
       </c>
       <c r="W224" t="n">
-        <v>0.05106417834758759</v>
+        <v>0.01626477763056755</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3922538757324219</v>
       </c>
       <c r="V225" t="n">
-        <v>0.57613205909729</v>
+        <v>0.9019365310668945</v>
       </c>
       <c r="W225" t="n">
-        <v>0.03381118550896645</v>
+        <v>0.2597764134407043</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3933389186859131</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4862914681434631</v>
       </c>
       <c r="W226" t="n">
-        <v>0.05187291651964188</v>
+        <v>0.008640176616609097</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.393557071685791</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.5059318542480469</v>
       </c>
       <c r="W227" t="n">
-        <v>1.196699395222822e-05</v>
+        <v>0.0126280914992094</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3950269222259521</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.8966270089149475</v>
       </c>
       <c r="W228" t="n">
-        <v>0.001680744113400578</v>
+        <v>0.2516026496887207</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4323990345001221</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.4769416451454163</v>
       </c>
       <c r="W229" t="n">
-        <v>0.05114578083157539</v>
+        <v>0.001984044210985303</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3930180072784424</v>
       </c>
       <c r="V230" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.4847211241722107</v>
       </c>
       <c r="W230" t="n">
-        <v>0.1755230724811554</v>
+        <v>0.008409461937844753</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3946881294250488</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.9877444505691528</v>
       </c>
       <c r="W231" t="n">
-        <v>0.004068437032401562</v>
+        <v>0.3517158031463623</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3986198902130127</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.4771043658256531</v>
       </c>
       <c r="W232" t="n">
-        <v>0.04962757602334023</v>
+        <v>0.006159813143312931</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3958990573883057</v>
       </c>
       <c r="V233" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.9617501497268677</v>
       </c>
       <c r="W233" t="n">
-        <v>0.116061806678772</v>
+        <v>0.3201874494552612</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.394061803817749</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.4870706796646118</v>
       </c>
       <c r="W234" t="n">
-        <v>0.002987600862979889</v>
+        <v>0.008650651201605797</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3961248397827148</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.5303015112876892</v>
       </c>
       <c r="W235" t="n">
-        <v>0.001591862994246185</v>
+        <v>0.01800337992608547</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3957741260528564</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.8808926939964294</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06879554688930511</v>
+        <v>0.235340029001236</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3942379951477051</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.5127179622650146</v>
       </c>
       <c r="W237" t="n">
-        <v>0.001722740009427071</v>
+        <v>0.01403750292956829</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3947830200195312</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.5421109795570374</v>
       </c>
       <c r="W238" t="n">
-        <v>0.05260474607348442</v>
+        <v>0.02170552685856819</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3909780979156494</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.476925790309906</v>
       </c>
       <c r="W239" t="n">
-        <v>0.004528101533651352</v>
+        <v>0.007387005724012852</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3872981071472168</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.5588241219520569</v>
       </c>
       <c r="W240" t="n">
-        <v>0.05270551890134811</v>
+        <v>0.02942117303609848</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3929729461669922</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.9488616585731506</v>
       </c>
       <c r="W241" t="n">
-        <v>0.01167451683431864</v>
+        <v>0.3090122640132904</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8981070518493652</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.537594199180603</v>
       </c>
       <c r="W242" t="n">
-        <v>0.07492924481630325</v>
+        <v>0.129969522356987</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9124290943145752</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.5367676615715027</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1570999622344971</v>
+        <v>0.141121506690979</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8757648468017578</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.9137699007987976</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1932770609855652</v>
+        <v>0.001444384106434882</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8683171272277832</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.5301077961921692</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1687579154968262</v>
+        <v>0.1143855527043343</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8702261447906494</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.5812085866928101</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1004179865121841</v>
+        <v>0.08353114873170853</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.867455005645752</v>
       </c>
       <c r="V247" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.8784497380256653</v>
       </c>
       <c r="W247" t="n">
-        <v>0.01786938309669495</v>
+        <v>0.0001208841422339901</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8697900772094727</v>
       </c>
       <c r="V248" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5316160321235657</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1573722064495087</v>
+        <v>0.1143616884946823</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8909769058227539</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.955164909362793</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1138592436909676</v>
+        <v>0.004120099823921919</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8678219318389893</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.530023992061615</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1697384566068649</v>
+        <v>0.1141074448823929</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8851990699768066</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.530117928981781</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2017566561698914</v>
+        <v>0.1260826140642166</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9639170169830322</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.4782477617263794</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2400896996259689</v>
+        <v>0.2358746230602264</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8971560001373291</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.8890244364738464</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2126421332359314</v>
+        <v>6.612233119085431e-05</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8726570606231689</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.5000426769256592</v>
       </c>
       <c r="W254" t="n">
-        <v>0.09405351430177689</v>
+        <v>0.1388414800167084</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8707559108734131</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5067566633224487</v>
+        <v>1.051703572273254</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1324954479932785</v>
+        <v>0.03274205699563026</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8657369613647461</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.9356736540794373</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1324658244848251</v>
+        <v>0.004891140852123499</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9361629486083984</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.5316665172576904</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1434832364320755</v>
+        <v>0.1636173576116562</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8673548698425293</v>
       </c>
       <c r="V258" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5315980911254883</v>
       </c>
       <c r="W258" t="n">
-        <v>0.01818858087062836</v>
+        <v>0.1127326115965843</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8676390647888184</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.9181958436965942</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1862883865833282</v>
+        <v>0.002555987797677517</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8648619651794434</v>
       </c>
       <c r="V260" t="n">
-        <v>0.56818687915802</v>
+        <v>0.530037522315979</v>
       </c>
       <c r="W260" t="n">
-        <v>0.08801610767841339</v>
+        <v>0.1121074110269547</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9226889610290527</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4847100377082825</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1252758055925369</v>
+        <v>0.1918255388736725</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5556530952453613</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.5596885085105896</v>
       </c>
       <c r="W262" t="n">
-        <v>0.002947889035567641</v>
+        <v>1.628456084290519e-05</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5386548042297363</v>
       </c>
       <c r="V263" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.5384094715118408</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0346769317984581</v>
+        <v>6.018814246999682e-08</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5858919620513916</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.500206470489502</v>
       </c>
       <c r="W264" t="n">
-        <v>0.004505968652665615</v>
+        <v>0.007342003285884857</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5251259803771973</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.4847379922866821</v>
       </c>
       <c r="W265" t="n">
-        <v>0.002143871504813433</v>
+        <v>0.001631189603358507</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5170869827270508</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.5302478671073914</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01897046528756618</v>
+        <v>0.0001732088712742552</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5340030193328857</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.4802776575088501</v>
       </c>
       <c r="W267" t="n">
-        <v>0.001076494343578815</v>
+        <v>0.002886414527893066</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5235750675201416</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.5589061975479126</v>
       </c>
       <c r="W268" t="n">
-        <v>0.009018687531352043</v>
+        <v>0.001248288783244789</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5228190422058105</v>
       </c>
       <c r="V269" t="n">
-        <v>0.43533855676651</v>
+        <v>0.512112557888031</v>
       </c>
       <c r="W269" t="n">
-        <v>0.007652835454791784</v>
+        <v>0.0001146288050222211</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5166230201721191</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.5300695300102234</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01746631413698196</v>
+        <v>0.000180808623554185</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.521543025970459</v>
       </c>
       <c r="V271" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.4845730066299438</v>
       </c>
       <c r="W271" t="n">
-        <v>0.08431701362133026</v>
+        <v>0.001366782351396978</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5878350734710693</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.5382527112960815</v>
       </c>
       <c r="W272" t="n">
-        <v>0.02304842695593834</v>
+        <v>0.002458410570397973</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.522022008895874</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.4770017862319946</v>
       </c>
       <c r="W273" t="n">
-        <v>0.004586026072502136</v>
+        <v>0.002026820555329323</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5326571464538574</v>
       </c>
       <c r="V274" t="n">
-        <v>0.458252340555191</v>
+        <v>0.516217052936554</v>
       </c>
       <c r="W274" t="n">
-        <v>0.005536075215786695</v>
+        <v>0.0002702766796573997</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5186278820037842</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.8844570517539978</v>
       </c>
       <c r="W275" t="n">
-        <v>0.002576992148533463</v>
+        <v>0.1338309794664383</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5191760063171387</v>
       </c>
       <c r="V276" t="n">
-        <v>0.473930835723877</v>
+        <v>0.4829974174499512</v>
       </c>
       <c r="W276" t="n">
-        <v>0.002047125482931733</v>
+        <v>0.001308890292420983</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5793061256408691</v>
       </c>
       <c r="V277" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.5371613502502441</v>
       </c>
       <c r="W277" t="n">
-        <v>0.04017305746674538</v>
+        <v>0.001776182092726231</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5243868827819824</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.5057699084281921</v>
       </c>
       <c r="W278" t="n">
-        <v>0.004784913267940283</v>
+        <v>0.0003465917252469808</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5339791774749756</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.4996454119682312</v>
       </c>
       <c r="W279" t="n">
-        <v>0.000108764557808172</v>
+        <v>0.001178807462565601</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.525324821472168</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.8855783343315125</v>
       </c>
       <c r="W280" t="n">
-        <v>0.004494472872465849</v>
+        <v>0.1297825872898102</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5196950435638428</v>
       </c>
       <c r="V281" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.9266833662986755</v>
       </c>
       <c r="W281" t="n">
-        <v>0.01979334093630314</v>
+        <v>0.1656394898891449</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4037179946899414</v>
       </c>
       <c r="V282" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.8775336742401123</v>
       </c>
       <c r="W282" t="n">
-        <v>0.1033308655023575</v>
+        <v>0.224501296877861</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4004080295562744</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.4816233515739441</v>
       </c>
       <c r="W283" t="n">
-        <v>0.009050538763403893</v>
+        <v>0.006595928687602282</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3982250690460205</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.5176929235458374</v>
       </c>
       <c r="W284" t="n">
-        <v>0.001403153291903436</v>
+        <v>0.01427256781607866</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4012138843536377</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.9107089042663574</v>
       </c>
       <c r="W285" t="n">
-        <v>0.003212456125766039</v>
+        <v>0.2595851719379425</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3974771499633789</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.4744385480880737</v>
       </c>
       <c r="W286" t="n">
-        <v>0.002000968204811215</v>
+        <v>0.005923056975007057</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3975949287414551</v>
       </c>
       <c r="V287" t="n">
-        <v>0.56879723072052</v>
+        <v>0.9442955255508423</v>
       </c>
       <c r="W287" t="n">
-        <v>0.02931022830307484</v>
+        <v>0.2988815307617188</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3988909721374512</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4847002625465393</v>
       </c>
       <c r="W288" t="n">
-        <v>0.1762572973966599</v>
+        <v>0.007363234180957079</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4583911895751953</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4828521013259888</v>
       </c>
       <c r="W289" t="n">
-        <v>0.006377319805324078</v>
+        <v>0.0005983362207189202</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3949978351593018</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4784455299377441</v>
       </c>
       <c r="W290" t="n">
-        <v>0.02904346026480198</v>
+        <v>0.006963517982512712</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3990201950073242</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.4779829382896423</v>
       </c>
       <c r="W291" t="n">
-        <v>0.01105432584881783</v>
+        <v>0.006235114764422178</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.399791955947876</v>
       </c>
       <c r="V292" t="n">
-        <v>0.390147477388382</v>
+        <v>0.9521105885505676</v>
       </c>
       <c r="W292" t="n">
-        <v>9.301596583100036e-05</v>
+        <v>0.3050558865070343</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3968961238861084</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.4874931573867798</v>
       </c>
       <c r="W293" t="n">
-        <v>0.001530140405520797</v>
+        <v>0.008207822218537331</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3931510448455811</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.4919111132621765</v>
       </c>
       <c r="W294" t="n">
-        <v>0.005369706079363823</v>
+        <v>0.009753551334142685</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.455409049987793</v>
       </c>
       <c r="V295" t="n">
-        <v>0.474732518196106</v>
+        <v>0.5807950496673584</v>
       </c>
       <c r="W295" t="n">
-        <v>0.0003733964113052934</v>
+        <v>0.0157216489315033</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3964829444885254</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5030409693717957</v>
       </c>
       <c r="W296" t="n">
-        <v>0.05201859772205353</v>
+        <v>0.01135461311787367</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4060459136962891</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.4877421259880066</v>
       </c>
       <c r="W297" t="n">
-        <v>0.0008986970060504973</v>
+        <v>0.006674271076917648</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4002950191497803</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.8960754871368408</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0004042567452415824</v>
+        <v>0.2457982748746872</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3972229957580566</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.5375678539276123</v>
       </c>
       <c r="W299" t="n">
-        <v>0.005771983414888382</v>
+        <v>0.0196966789662838</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3964090347290039</v>
       </c>
       <c r="V300" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4847341179847717</v>
       </c>
       <c r="W300" t="n">
-        <v>3.333381391712464e-05</v>
+        <v>0.007801320403814316</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4045429229736328</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.5963846445083618</v>
       </c>
       <c r="W301" t="n">
-        <v>0.00100503268186003</v>
+        <v>0.03680324554443359</v>
       </c>
     </row>
     <row r="302" spans="1:23">
